--- a/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
+++ b/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" activeTab="1"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
     <sheet name="MEDICAO COMPARATIVA" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="98">
   <si>
     <t>ELABORAÇÃO 
 DO 
@@ -295,9 +290,6 @@
   </si>
   <si>
     <t>PAD</t>
-  </si>
-  <si>
-    <t>LUZIA</t>
   </si>
   <si>
     <t>FLAVIO</t>
@@ -748,40 +740,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,7 +807,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES (1).xlsx]Plan1!Tabela dinâmica1</c:name>
+    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx]Plan1!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1062,11 +1054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479786968"/>
-        <c:axId val="476859432"/>
+        <c:axId val="139952128"/>
+        <c:axId val="140052160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479786968"/>
+        <c:axId val="139952128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,7 +1068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="476859432"/>
+        <c:crossAx val="140052160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476859432"/>
+        <c:axId val="140052160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1095,7 +1087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479786968"/>
+        <c:crossAx val="139952128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1157,6 +1149,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1249,7 +1242,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LUZIA</c:v>
+                  <c:v>LUIZA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1400,11 +1393,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479121936"/>
-        <c:axId val="479121544"/>
+        <c:axId val="138557440"/>
+        <c:axId val="140053888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="479121936"/>
+        <c:axId val="138557440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1407,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479121544"/>
+        <c:crossAx val="140053888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1422,7 +1415,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="479121544"/>
+        <c:axId val="140053888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,13 +1443,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479121936"/>
+        <c:crossAx val="138557440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1625,7 +1619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1981,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1995,29 +1989,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="53">
         <v>1</v>
@@ -2031,7 +2025,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="53">
         <v>1</v>
@@ -2045,7 +2039,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="53">
         <v>1</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="53">
         <v>1</v>
@@ -2073,7 +2067,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="53">
         <v>1</v>
@@ -2087,7 +2081,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="53">
         <v>1</v>
@@ -2101,7 +2095,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="53">
         <v>6</v>
@@ -2124,135 +2118,135 @@
   <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:Z2"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="101.85546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="101.875" customWidth="1"/>
+    <col min="4" max="5" width="11.625" style="36" customWidth="1"/>
     <col min="6" max="6" width="12" style="36" customWidth="1"/>
     <col min="7" max="7" width="2" style="36" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="36" customWidth="1"/>
     <col min="10" max="10" width="12" style="36" customWidth="1"/>
     <col min="11" max="11" width="2" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="36" customWidth="1"/>
     <col min="14" max="14" width="12" style="36" customWidth="1"/>
     <col min="15" max="15" width="2" style="36" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="26" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" style="36" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="26" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="36" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="36" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="2" style="36" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="26" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="36" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="26" customWidth="1"/>
+    <col min="21" max="21" width="11.625" style="36" customWidth="1"/>
     <col min="22" max="22" width="12" style="36" customWidth="1"/>
     <col min="23" max="23" width="2" style="36" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="36" customWidth="1"/>
+    <col min="24" max="24" width="12.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" style="36" customWidth="1"/>
     <col min="26" max="26" width="12" style="36" customWidth="1"/>
     <col min="27" max="27" width="2" style="10" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" customWidth="1"/>
+    <col min="32" max="32" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="71"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="71"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="68"/>
-      <c r="N1" s="71"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="71"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="73"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="68"/>
-      <c r="V1" s="71"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="73"/>
       <c r="W1" s="23"/>
-      <c r="X1" s="67" t="s">
+      <c r="X1" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
       <c r="AA1" s="48"/>
-      <c r="AE1" s="73" t="s">
+      <c r="AE1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
       <c r="AH1" s="34"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="69" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="72"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="69" t="s">
+      <c r="L2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="72"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
       <c r="O2" s="23"/>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="72"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="64"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="69" t="s">
+      <c r="T2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="70"/>
-      <c r="V2" s="72"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="64"/>
       <c r="W2" s="23"/>
-      <c r="X2" s="69" t="s">
+      <c r="X2" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
       <c r="AA2" s="49"/>
       <c r="AE2" s="34"/>
       <c r="AF2" s="34"/>
       <c r="AG2" s="35"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="29" t="s">
         <v>77</v>
       </c>
@@ -2324,7 +2318,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11">
@@ -2412,7 +2406,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -2450,7 +2444,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11">
@@ -3509,7 +3503,7 @@
       </c>
     </row>
     <row r="27" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="13"/>
       <c r="C27" s="40"/>
       <c r="D27" s="29"/>
@@ -3544,7 +3538,7 @@
       <c r="AN27" s="6"/>
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11">
@@ -3677,7 +3671,7 @@
       </c>
     </row>
     <row r="31" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="13">
         <v>28</v>
       </c>
@@ -4771,7 +4765,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+      <c r="A57" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="56">
@@ -4890,7 +4884,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
+      <c r="A60" s="67"/>
       <c r="B60" s="60">
         <v>57</v>
       </c>
@@ -5053,12 +5047,12 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
+      <c r="C68" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
@@ -5068,15 +5062,15 @@
         <v>5</v>
       </c>
       <c r="E69" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F69" s="50" t="s">
         <v>84</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="50">
         <f>F62</f>
@@ -5093,7 +5087,7 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D71" s="50">
         <f>J62</f>
@@ -5110,7 +5104,7 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D72" s="50">
         <f>N62</f>
@@ -5127,7 +5121,7 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73" s="50">
         <f>R62</f>
@@ -5144,7 +5138,7 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="50">
         <f>V62</f>
@@ -5161,7 +5155,7 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="50">
         <f>Z62</f>
@@ -5178,7 +5172,7 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="54">
         <f t="shared" ref="D76:E76" si="1">AVERAGE(D70:D75)</f>
@@ -5195,6 +5189,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T1:V1"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="A32:A56"/>
     <mergeCell ref="A57:A60"/>
@@ -5211,10 +5209,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="T1:V1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
+++ b/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\PosGraduacao\TCC Andre\_POOL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
     <sheet name="MEDICAO COMPARATIVA" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -121,21 +126,6 @@
     <t>1811/2016 Alarme Monitorado</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FALTA DE / INCOMPLETUDE DO ITEM:  CONTINUIDADE DA DEMANDA  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?????????? DO Q SE TRATA??</t>
-    </r>
-  </si>
-  <si>
     <t>FALTA DE / INCOMPLETUDE DO ITEM:  SISTEMÁTICAS LEGAIS / LEGISLAÇÃO APLICÁVEL AO OBJETO</t>
   </si>
   <si>
@@ -332,6 +322,9 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>FALTA DE / INCOMPLETUDE DO ITEM:  CONTINUIDADE DA DEMANDA</t>
   </si>
 </sst>
 </file>
@@ -341,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,13 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -620,7 +600,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -644,10 +624,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -656,19 +636,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,9 +705,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -749,6 +726,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -764,16 +750,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,7 +784,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx]Plan1!Tabela dinâmica1</c:name>
+    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES new.xlsx]Plan1!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1054,11 +1031,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139952128"/>
-        <c:axId val="140052160"/>
+        <c:axId val="270547912"/>
+        <c:axId val="270543992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139952128"/>
+        <c:axId val="270547912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140052160"/>
+        <c:crossAx val="270543992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1076,7 +1053,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140052160"/>
+        <c:axId val="270543992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139952128"/>
+        <c:crossAx val="270547912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,11 +1370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="138557440"/>
-        <c:axId val="140053888"/>
+        <c:axId val="270541248"/>
+        <c:axId val="270548304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138557440"/>
+        <c:axId val="270541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1384,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140053888"/>
+        <c:crossAx val="270548304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1415,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140053888"/>
+        <c:axId val="270548304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138557440"/>
+        <c:crossAx val="270541248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1513,15 +1490,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>693963</xdr:colOff>
+      <xdr:colOff>693962</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>36740</xdr:rowOff>
+      <xdr:rowOff>36739</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1619,7 +1596,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1975,7 +1952,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1989,29 +1966,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="53">
         <v>1</v>
@@ -2025,7 +2002,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="53">
         <v>1</v>
@@ -2039,7 +2016,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="53">
         <v>1</v>
@@ -2053,7 +2030,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="53">
         <v>1</v>
@@ -2067,7 +2044,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="53">
         <v>1</v>
@@ -2081,7 +2058,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="53">
         <v>1</v>
@@ -2095,7 +2072,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="53">
         <v>6</v>
@@ -2115,210 +2092,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D70" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="101.875" customWidth="1"/>
-    <col min="4" max="5" width="11.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="93.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="36" customWidth="1"/>
     <col min="6" max="6" width="12" style="36" customWidth="1"/>
     <col min="7" max="7" width="2" style="36" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="36" customWidth="1"/>
     <col min="10" max="10" width="12" style="36" customWidth="1"/>
     <col min="11" max="11" width="2" style="36" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="36" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="36" customWidth="1"/>
     <col min="14" max="14" width="12" style="36" customWidth="1"/>
     <col min="15" max="15" width="2" style="36" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="26" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.625" style="36" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="26" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="36" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="36" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="2" style="36" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="26" customWidth="1"/>
-    <col min="21" max="21" width="11.625" style="36" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" style="26" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="36" customWidth="1"/>
     <col min="22" max="22" width="12" style="36" customWidth="1"/>
     <col min="23" max="23" width="2" style="36" customWidth="1"/>
-    <col min="24" max="24" width="12.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" style="36" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="36" customWidth="1"/>
     <col min="26" max="26" width="12" style="36" customWidth="1"/>
     <col min="27" max="27" width="2" style="10" customWidth="1"/>
-    <col min="32" max="32" width="9.75" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="71" t="s">
+    <row r="1" spans="1:33" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="H1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
+      <c r="L1" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="65"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="73"/>
+      <c r="P1" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" s="72"/>
-      <c r="V1" s="73"/>
+      <c r="T1" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="65"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="23"/>
-      <c r="X1" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
+      <c r="X1" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
       <c r="AA1" s="48"/>
-      <c r="AE1" s="68" t="s">
+      <c r="AD1" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="34"/>
-    </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="62" t="s">
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="34"/>
+    </row>
+    <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="23"/>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="64"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="63"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="62" t="s">
+      <c r="T2" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="64"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="63"/>
       <c r="W2" s="23"/>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
       <c r="AA2" s="49"/>
+      <c r="AD2" s="34"/>
       <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="35"/>
-    </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="AF2" s="35"/>
+    </row>
+    <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AA3" s="7"/>
+      <c r="AD3" s="18" t="s">
+        <v>76</v>
+      </c>
       <c r="AE3" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG3" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11">
@@ -2332,7 +2304,7 @@
       <c r="F4" s="28"/>
       <c r="G4" s="25"/>
       <c r="H4" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="28"/>
@@ -2353,15 +2325,18 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="25"/>
       <c r="AA4" s="28"/>
+      <c r="AD4" s="37">
+        <v>0</v>
+      </c>
       <c r="AE4" s="37">
         <v>0</v>
       </c>
-      <c r="AF4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="67"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2370,15 +2345,15 @@
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="16"/>
       <c r="H5" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="16"/>
@@ -2398,15 +2373,18 @@
       <c r="Y5" s="21"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="30"/>
+      <c r="AD5" s="37">
+        <v>0</v>
+      </c>
       <c r="AE5" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -2436,22 +2414,25 @@
       <c r="Y6" s="22"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="9"/>
+      <c r="AD6" s="37">
+        <v>0</v>
+      </c>
       <c r="AE6" s="37">
         <v>0</v>
       </c>
-      <c r="AF6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="AF6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11">
         <v>4</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="29"/>
       <c r="F7" s="7"/>
@@ -2476,27 +2457,30 @@
       <c r="Y7" s="21"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="7"/>
+      <c r="AD7" s="37">
+        <v>0</v>
+      </c>
       <c r="AE7" s="37">
         <v>0</v>
       </c>
-      <c r="AF7" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67"/>
       <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="29"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
       <c r="H8" s="29"/>
       <c r="I8" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
@@ -2505,96 +2489,102 @@
       <c r="N8" s="7"/>
       <c r="O8" s="6"/>
       <c r="P8" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="21"/>
       <c r="R8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="45"/>
       <c r="U8" s="21"/>
       <c r="V8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="21"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="7"/>
+      <c r="AD8" s="37">
+        <v>0</v>
+      </c>
       <c r="AE8" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="29"/>
       <c r="F9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S9" s="6"/>
       <c r="T9" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="45"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="7"/>
+      <c r="AD9" s="37">
+        <v>3</v>
+      </c>
       <c r="AE9" s="37">
         <v>3</v>
       </c>
-      <c r="AF9" s="37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="AF9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -2603,145 +2593,151 @@
       </c>
       <c r="D10" s="29"/>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="45"/>
       <c r="M10" s="21"/>
       <c r="N10" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="21"/>
       <c r="R10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="45"/>
       <c r="U10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V10" s="7"/>
       <c r="W10" s="6"/>
       <c r="X10" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z10" s="6"/>
       <c r="AA10" s="7"/>
+      <c r="AD10" s="37">
+        <v>2</v>
+      </c>
       <c r="AE10" s="37">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
+      <c r="AF10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="29"/>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" s="6"/>
       <c r="P11" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="R11" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W11" s="6"/>
       <c r="X11" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA11" s="7"/>
+      <c r="AD11" s="37">
+        <v>4</v>
+      </c>
       <c r="AE11" s="37">
         <v>4</v>
       </c>
-      <c r="AF11" s="37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="AF11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
       <c r="B12" s="12">
         <v>9</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="29"/>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="29"/>
       <c r="I12" s="21"/>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="45"/>
       <c r="M12" s="21"/>
       <c r="N12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="45"/>
@@ -2750,44 +2746,47 @@
       <c r="S12" s="6"/>
       <c r="T12" s="45"/>
       <c r="U12" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V12" s="7"/>
       <c r="W12" s="6"/>
       <c r="X12" s="45"/>
       <c r="Y12" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z12" s="6"/>
       <c r="AA12" s="7"/>
+      <c r="AD12" s="37">
+        <v>0</v>
+      </c>
       <c r="AE12" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="29"/>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="29"/>
       <c r="I13" s="21"/>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M13" s="21"/>
       <c r="N13" s="7"/>
@@ -2797,33 +2796,36 @@
       <c r="R13" s="7"/>
       <c r="S13" s="6"/>
       <c r="T13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U13" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W13" s="6"/>
       <c r="X13" s="45"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="7"/>
+      <c r="AD13" s="37">
+        <v>2</v>
+      </c>
       <c r="AE13" s="37">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
       <c r="B14" s="12">
         <v>11</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="29"/>
       <c r="F14" s="7"/>
@@ -2833,13 +2835,13 @@
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
       <c r="L14" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M14" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="45"/>
@@ -2847,61 +2849,64 @@
       <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z14" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA14" s="7"/>
+      <c r="AD14" s="37">
+        <v>3</v>
+      </c>
       <c r="AE14" s="37">
         <v>3</v>
       </c>
-      <c r="AF14" s="37">
+      <c r="AF14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="45"/>
@@ -2909,10 +2914,10 @@
       <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V15" s="7"/>
       <c r="W15" s="6"/>
@@ -2920,42 +2925,45 @@
       <c r="Y15" s="21"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="7"/>
+      <c r="AD15" s="37">
+        <v>4</v>
+      </c>
       <c r="AE15" s="37">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
       <c r="B16" s="12">
         <v>13</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="29"/>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="21"/>
       <c r="N16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="45"/>
@@ -2964,34 +2972,37 @@
       <c r="S16" s="6"/>
       <c r="T16" s="45"/>
       <c r="U16" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W16" s="6"/>
       <c r="X16" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA16" s="7"/>
+      <c r="AD16" s="37">
+        <v>3</v>
+      </c>
       <c r="AE16" s="37">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="AF16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="32"/>
       <c r="F17" s="7"/>
@@ -2999,15 +3010,15 @@
       <c r="H17" s="29"/>
       <c r="I17" s="24"/>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M17" s="24"/>
       <c r="N17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="45"/>
@@ -3017,45 +3028,48 @@
       <c r="T17" s="45"/>
       <c r="U17" s="24"/>
       <c r="V17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W17" s="6"/>
       <c r="X17" s="45"/>
       <c r="Y17" s="24"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="7"/>
+      <c r="AD17" s="37">
+        <v>1</v>
+      </c>
       <c r="AE17" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
       <c r="B18" s="12">
         <v>15</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="29"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
       <c r="H18" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
       <c r="L18" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="45"/>
@@ -3063,43 +3077,46 @@
       <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y18" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA18" s="7"/>
+      <c r="AD18" s="37">
+        <v>4</v>
+      </c>
       <c r="AE18" s="37">
-        <v>4</v>
-      </c>
-      <c r="AF18" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="29"/>
       <c r="F19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="29"/>
@@ -3107,11 +3124,11 @@
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
       <c r="L19" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="21"/>
       <c r="N19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="45"/>
@@ -3121,32 +3138,35 @@
       <c r="T19" s="45"/>
       <c r="U19" s="21"/>
       <c r="V19" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W19" s="6"/>
       <c r="X19" s="45"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA19" s="7"/>
+      <c r="AD19" s="37">
+        <v>1</v>
+      </c>
       <c r="AE19" s="37">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
       <c r="B20" s="12">
         <v>17</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
@@ -3163,10 +3183,10 @@
       <c r="R20" s="7"/>
       <c r="S20" s="6"/>
       <c r="T20" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20" s="7"/>
       <c r="W20" s="6"/>
@@ -3174,37 +3194,40 @@
       <c r="Y20" s="21"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="7"/>
+      <c r="AD20" s="37">
+        <v>2</v>
+      </c>
       <c r="AE20" s="37">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="29"/>
       <c r="I21" s="21"/>
       <c r="J21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6"/>
@@ -3213,10 +3236,10 @@
       <c r="R21" s="7"/>
       <c r="S21" s="6"/>
       <c r="T21" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V21" s="7"/>
       <c r="W21" s="6"/>
@@ -3224,42 +3247,45 @@
       <c r="Y21" s="21"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="7"/>
+      <c r="AD21" s="37">
+        <v>3</v>
+      </c>
       <c r="AE21" s="37">
-        <v>3</v>
-      </c>
-      <c r="AF21" s="37">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
       <c r="B22" s="12">
         <v>19</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="29"/>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M22" s="21"/>
       <c r="N22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="45"/>
@@ -3267,59 +3293,62 @@
       <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W22" s="6"/>
       <c r="X22" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y22" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z22" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA22" s="7"/>
+      <c r="AD22" s="37">
+        <v>4</v>
+      </c>
       <c r="AE22" s="37">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="29"/>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="45"/>
       <c r="M23" s="21"/>
       <c r="N23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="45"/>
@@ -3329,26 +3358,26 @@
       <c r="T23" s="45"/>
       <c r="U23" s="21"/>
       <c r="V23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W23" s="6"/>
       <c r="X23" s="45"/>
       <c r="Y23" s="21"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="7"/>
+      <c r="AD23" s="37">
+        <v>1</v>
+      </c>
       <c r="AE23" s="37">
         <v>1</v>
       </c>
-      <c r="AF23" s="37">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="6">
-        <f>COUNTIF(D23:L23,"")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+      <c r="AF23">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="67"/>
       <c r="B24" s="12">
         <v>21</v>
       </c>
@@ -3357,19 +3386,19 @@
       </c>
       <c r="D24" s="29"/>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="29"/>
       <c r="I24" s="21"/>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="45"/>
       <c r="M24" s="21"/>
       <c r="N24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="45"/>
@@ -3377,61 +3406,61 @@
       <c r="R24" s="7"/>
       <c r="S24" s="6"/>
       <c r="T24" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U24" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y24" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA24" s="7"/>
+      <c r="AD24" s="37">
+        <v>2</v>
+      </c>
       <c r="AE24" s="37">
         <v>2</v>
       </c>
-      <c r="AF24" s="37">
-        <v>2</v>
-      </c>
-      <c r="AN24" s="6">
-        <f>COUNTIF(D24:L24,"")</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="7"/>
@@ -3441,32 +3470,35 @@
       <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U25" s="21"/>
       <c r="V25" s="7"/>
       <c r="W25" s="6"/>
       <c r="X25" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y25" s="21"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="7"/>
+      <c r="AD25" s="37">
+        <v>5</v>
+      </c>
       <c r="AE25" s="37">
-        <v>5</v>
-      </c>
-      <c r="AF25" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="6"/>
-    </row>
-    <row r="26" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>2</v>
+      </c>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
       <c r="B26" s="12">
         <v>23</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D26" s="29"/>
       <c r="F26" s="33"/>
@@ -3491,19 +3523,19 @@
       <c r="Y26" s="21"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="33"/>
+      <c r="AD26" s="37">
+        <v>0</v>
+      </c>
       <c r="AE26" s="37">
         <v>0</v>
       </c>
-      <c r="AF26" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="6">
-        <f>COUNTIF(D26:L26,"")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
       <c r="B27" s="13"/>
       <c r="C27" s="40"/>
       <c r="D27" s="29"/>
@@ -3529,16 +3561,19 @@
       <c r="Y27" s="21"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="33"/>
+      <c r="AD27" s="37">
+        <v>0</v>
+      </c>
       <c r="AE27" s="37">
         <v>0</v>
       </c>
-      <c r="AF27" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="6"/>
-    </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="68" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11">
@@ -3550,7 +3585,7 @@
       <c r="D28" s="27"/>
       <c r="E28" s="20"/>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="27"/>
@@ -3573,19 +3608,19 @@
       <c r="Y28" s="20"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="5"/>
+      <c r="AD28" s="37">
+        <v>0</v>
+      </c>
       <c r="AE28" s="37">
         <v>0</v>
       </c>
-      <c r="AF28" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="6">
-        <f>COUNTIF(D28:L28,"")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="67"/>
       <c r="B29" s="12">
         <v>26</v>
       </c>
@@ -3616,19 +3651,19 @@
       <c r="Y29" s="21"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="7"/>
+      <c r="AD29" s="37">
+        <v>0</v>
+      </c>
       <c r="AE29" s="37">
         <v>0</v>
       </c>
-      <c r="AF29" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="6">
-        <f>COUNTIF(D29:L29,"")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -3659,19 +3694,19 @@
       <c r="Y30" s="21"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="7"/>
+      <c r="AD30" s="37">
+        <v>0</v>
+      </c>
       <c r="AE30" s="37">
         <v>0</v>
       </c>
-      <c r="AF30" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="6">
-        <f>COUNTIF(D30:L30,"")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="69"/>
       <c r="B31" s="13">
         <v>28</v>
       </c>
@@ -3702,26 +3737,26 @@
       <c r="Y31" s="22"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="9"/>
+      <c r="AD31" s="37">
+        <v>0</v>
+      </c>
       <c r="AE31" s="37">
         <v>0</v>
       </c>
-      <c r="AF31" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="6">
-        <f>COUNTIF(D31:L31,"")</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="21"/>
@@ -3730,7 +3765,7 @@
       <c r="H32" s="29"/>
       <c r="I32" s="21"/>
       <c r="J32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="45"/>
@@ -3749,19 +3784,19 @@
       <c r="Y32" s="21"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="7"/>
+      <c r="AD32" s="37">
+        <v>0</v>
+      </c>
       <c r="AE32" s="37">
         <v>0</v>
       </c>
-      <c r="AF32" s="37">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="6">
-        <f>COUNTIF(D32:L32,"")</f>
-        <v>8</v>
-      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="6"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="12">
         <v>30</v>
       </c>
@@ -3796,20 +3831,23 @@
         <v>27</v>
       </c>
       <c r="AA33" s="7"/>
+      <c r="AD33" s="37">
+        <v>0</v>
+      </c>
       <c r="AE33" s="37">
         <v>0</v>
       </c>
-      <c r="AF33" s="37">
+      <c r="AF33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="67"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="21"/>
@@ -3825,7 +3863,7 @@
       <c r="O34" s="6"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="6"/>
@@ -3834,22 +3872,25 @@
       <c r="V34" s="7"/>
       <c r="W34" s="6"/>
       <c r="X34" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y34" s="21"/>
       <c r="Z34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA34" s="7"/>
+      <c r="AD34" s="37">
+        <v>0</v>
+      </c>
       <c r="AE34" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="37">
         <v>1</v>
       </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="12">
         <v>32</v>
       </c>
@@ -3871,7 +3912,7 @@
       <c r="P35" s="45"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="45"/>
@@ -3879,22 +3920,25 @@
       <c r="V35" s="7"/>
       <c r="W35" s="6"/>
       <c r="X35" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y35" s="21"/>
       <c r="Z35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA35" s="7"/>
+      <c r="AD35" s="37">
+        <v>0</v>
+      </c>
       <c r="AE35" s="37">
         <v>0</v>
       </c>
-      <c r="AF35" s="37">
+      <c r="AF35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="67"/>
       <c r="B36" s="12">
         <v>33</v>
       </c>
@@ -3915,7 +3959,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="45"/>
       <c r="Q36" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="6"/>
@@ -3927,15 +3971,18 @@
       <c r="Y36" s="21"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="7"/>
+      <c r="AD36" s="37">
+        <v>0</v>
+      </c>
       <c r="AE36" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="37">
         <v>1</v>
       </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="12">
         <v>34</v>
       </c>
@@ -3949,7 +3996,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="21"/>
       <c r="J37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="45"/>
@@ -3959,7 +4006,7 @@
       <c r="P37" s="45"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="45"/>
@@ -3970,31 +4017,34 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="7"/>
+      <c r="AD37" s="37">
+        <v>0</v>
+      </c>
       <c r="AE37" s="37">
         <v>0</v>
       </c>
-      <c r="AF37" s="37">
-        <v>0</v>
+      <c r="AF37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
+      <c r="A38" s="67"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="21"/>
       <c r="F38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="29"/>
       <c r="I38" s="21"/>
       <c r="J38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="45"/>
@@ -4003,10 +4053,10 @@
       <c r="O38" s="6"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S38" s="6"/>
       <c r="T38" s="45"/>
@@ -4017,15 +4067,18 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="6"/>
       <c r="AA38" s="7"/>
+      <c r="AD38" s="37">
+        <v>0</v>
+      </c>
       <c r="AE38" s="37">
         <v>0</v>
       </c>
-      <c r="AF38" s="37">
-        <v>0</v>
+      <c r="AF38">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="12">
         <v>36</v>
       </c>
@@ -4035,7 +4088,7 @@
       <c r="D39" s="29"/>
       <c r="E39" s="21"/>
       <c r="F39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="29"/>
@@ -4048,7 +4101,7 @@
       <c r="O39" s="6"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="6"/>
@@ -4060,20 +4113,23 @@
       <c r="Y39" s="21"/>
       <c r="Z39" s="6"/>
       <c r="AA39" s="7"/>
+      <c r="AD39" s="37">
+        <v>0</v>
+      </c>
       <c r="AE39" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="37">
         <v>1</v>
       </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
+      <c r="A40" s="67"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="21"/>
@@ -4094,27 +4150,30 @@
       <c r="T40" s="45"/>
       <c r="U40" s="21"/>
       <c r="V40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W40" s="6"/>
       <c r="X40" s="45"/>
       <c r="Y40" s="21"/>
       <c r="Z40" s="6"/>
       <c r="AA40" s="7"/>
+      <c r="AD40" s="37">
+        <v>0</v>
+      </c>
       <c r="AE40" s="37">
         <v>0</v>
       </c>
-      <c r="AF40" s="37">
-        <v>0</v>
+      <c r="AF40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
+      <c r="A41" s="67"/>
       <c r="B41" s="12">
         <v>38</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="21"/>
@@ -4140,20 +4199,23 @@
       <c r="Y41" s="21"/>
       <c r="Z41" s="6"/>
       <c r="AA41" s="7"/>
+      <c r="AD41" s="37">
+        <v>0</v>
+      </c>
       <c r="AE41" s="37">
         <v>0</v>
       </c>
-      <c r="AF41" s="37">
+      <c r="AF41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="21"/>
@@ -4169,7 +4231,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="45"/>
       <c r="Q42" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R42" s="7"/>
       <c r="S42" s="6"/>
@@ -4181,20 +4243,23 @@
       <c r="Y42" s="21"/>
       <c r="Z42" s="6"/>
       <c r="AA42" s="7"/>
+      <c r="AD42" s="37">
+        <v>0</v>
+      </c>
       <c r="AE42" s="37">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="37">
         <v>1</v>
       </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="12">
         <v>40</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="21"/>
@@ -4211,28 +4276,31 @@
       <c r="P43" s="45"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="45"/>
       <c r="U43" s="21"/>
       <c r="V43" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W43" s="6"/>
       <c r="X43" s="45"/>
       <c r="Y43" s="21"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="7"/>
+      <c r="AD43" s="37">
+        <v>0</v>
+      </c>
       <c r="AE43" s="37">
         <v>0</v>
       </c>
-      <c r="AF43" s="37">
-        <v>0</v>
+      <c r="AF43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="12">
         <v>41</v>
       </c>
@@ -4254,7 +4322,7 @@
       <c r="P44" s="45"/>
       <c r="Q44" s="21"/>
       <c r="R44" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="45"/>
@@ -4265,20 +4333,23 @@
       <c r="Y44" s="21"/>
       <c r="Z44" s="6"/>
       <c r="AA44" s="7"/>
+      <c r="AD44" s="37">
+        <v>0</v>
+      </c>
       <c r="AE44" s="37">
         <v>0</v>
       </c>
-      <c r="AF44" s="37">
+      <c r="AF44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="12">
         <v>42</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="21"/>
@@ -4299,27 +4370,30 @@
       <c r="T45" s="45"/>
       <c r="U45" s="21"/>
       <c r="V45" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W45" s="6"/>
       <c r="X45" s="45"/>
       <c r="Y45" s="21"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="7"/>
+      <c r="AD45" s="37">
+        <v>0</v>
+      </c>
       <c r="AE45" s="37">
         <v>0</v>
       </c>
-      <c r="AF45" s="37">
-        <v>0</v>
+      <c r="AF45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="12">
         <v>43</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="21"/>
@@ -4334,7 +4408,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="6"/>
       <c r="P46" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="21"/>
       <c r="R46" s="7"/>
@@ -4347,15 +4421,18 @@
       <c r="Y46" s="21"/>
       <c r="Z46" s="6"/>
       <c r="AA46" s="7"/>
+      <c r="AD46" s="37">
+        <v>0</v>
+      </c>
       <c r="AE46" s="37">
         <v>0</v>
       </c>
-      <c r="AF46" s="37">
+      <c r="AF46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="12">
         <v>44</v>
       </c>
@@ -4377,7 +4454,7 @@
       <c r="P47" s="45"/>
       <c r="Q47" s="21"/>
       <c r="R47" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="45"/>
@@ -4388,20 +4465,23 @@
       <c r="Y47" s="21"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="7"/>
+      <c r="AD47" s="37">
+        <v>0</v>
+      </c>
       <c r="AE47" s="37">
         <v>0</v>
       </c>
-      <c r="AF47" s="37">
+      <c r="AF47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="12">
         <v>45</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="29"/>
       <c r="E48" s="21"/>
@@ -4422,27 +4502,30 @@
       <c r="T48" s="45"/>
       <c r="U48" s="21"/>
       <c r="V48" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W48" s="6"/>
       <c r="X48" s="45"/>
       <c r="Y48" s="21"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="7"/>
+      <c r="AD48" s="37">
+        <v>0</v>
+      </c>
       <c r="AE48" s="37">
         <v>0</v>
       </c>
-      <c r="AF48" s="37">
-        <v>0</v>
+      <c r="AF48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="12">
         <v>46</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="29"/>
       <c r="E49" s="21"/>
@@ -4459,33 +4542,36 @@
       <c r="P49" s="45"/>
       <c r="Q49" s="21"/>
       <c r="R49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S49" s="6"/>
       <c r="T49" s="45"/>
       <c r="U49" s="21"/>
       <c r="V49" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W49" s="6"/>
       <c r="X49" s="45"/>
       <c r="Y49" s="21"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="7"/>
+      <c r="AD49" s="37">
+        <v>0</v>
+      </c>
       <c r="AE49" s="37">
         <v>0</v>
       </c>
-      <c r="AF49" s="37">
-        <v>0</v>
+      <c r="AF49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="12">
         <v>47</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="29"/>
       <c r="E50" s="21"/>
@@ -4500,34 +4586,37 @@
       <c r="N50" s="7"/>
       <c r="O50" s="6"/>
       <c r="P50" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q50" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R50" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="45"/>
       <c r="U50" s="21"/>
       <c r="V50" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W50" s="6"/>
       <c r="X50" s="45"/>
       <c r="Y50" s="21"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="7"/>
+      <c r="AD50" s="37">
+        <v>1</v>
+      </c>
       <c r="AE50" s="37">
         <v>1</v>
       </c>
-      <c r="AF50" s="37">
+      <c r="AF50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="12">
         <v>48</v>
       </c>
@@ -4549,7 +4638,7 @@
       <c r="P51" s="45"/>
       <c r="Q51" s="21"/>
       <c r="R51" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="45"/>
@@ -4560,20 +4649,23 @@
       <c r="Y51" s="21"/>
       <c r="Z51" s="6"/>
       <c r="AA51" s="7"/>
+      <c r="AD51" s="37">
+        <v>0</v>
+      </c>
       <c r="AE51" s="37">
         <v>0</v>
       </c>
-      <c r="AF51" s="37">
+      <c r="AF51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="12">
         <v>49</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="21"/>
@@ -4599,20 +4691,23 @@
       <c r="Y52" s="21"/>
       <c r="Z52" s="6"/>
       <c r="AA52" s="7"/>
+      <c r="AD52" s="37">
+        <v>0</v>
+      </c>
       <c r="AE52" s="37">
         <v>0</v>
       </c>
-      <c r="AF52" s="37">
+      <c r="AF52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="12">
         <v>50</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="21"/>
@@ -4638,20 +4733,23 @@
       <c r="Y53" s="21"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="7"/>
+      <c r="AD53" s="37">
+        <v>0</v>
+      </c>
       <c r="AE53" s="37">
         <v>0</v>
       </c>
-      <c r="AF53" s="37">
+      <c r="AF53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="12">
         <v>51</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="29"/>
       <c r="E54" s="21"/>
@@ -4677,15 +4775,18 @@
       <c r="Y54" s="21"/>
       <c r="Z54" s="6"/>
       <c r="AA54" s="7"/>
+      <c r="AD54" s="37">
+        <v>0</v>
+      </c>
       <c r="AE54" s="37">
         <v>0</v>
       </c>
-      <c r="AF54" s="37">
+      <c r="AF54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="12">
         <v>52</v>
       </c>
@@ -4707,7 +4808,7 @@
       <c r="P55" s="45"/>
       <c r="Q55" s="21"/>
       <c r="R55" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="45"/>
@@ -4718,15 +4819,18 @@
       <c r="Y55" s="21"/>
       <c r="Z55" s="6"/>
       <c r="AA55" s="7"/>
+      <c r="AD55" s="37">
+        <v>0</v>
+      </c>
       <c r="AE55" s="37">
         <v>0</v>
       </c>
-      <c r="AF55" s="37">
+      <c r="AF55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="12">
         <v>53</v>
       </c>
@@ -4757,21 +4861,24 @@
       <c r="Y56" s="21"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="7"/>
+      <c r="AD56" s="37">
+        <v>0</v>
+      </c>
       <c r="AE56" s="37">
         <v>0</v>
       </c>
-      <c r="AF56" s="37">
+      <c r="AF56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="55">
         <v>54</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="27"/>
@@ -4798,19 +4905,22 @@
       <c r="Y57" s="20"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="5"/>
+      <c r="AD57" s="37">
+        <v>0</v>
+      </c>
       <c r="AE57" s="37">
         <v>0</v>
       </c>
-      <c r="AF57" s="37">
+      <c r="AF57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="58">
+      <c r="A58" s="67"/>
+      <c r="B58" s="57">
         <v>55</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="29"/>
@@ -4837,19 +4947,22 @@
       <c r="Y58" s="21"/>
       <c r="Z58" s="6"/>
       <c r="AA58" s="7"/>
+      <c r="AD58" s="37">
+        <v>0</v>
+      </c>
       <c r="AE58" s="37">
         <v>0</v>
       </c>
-      <c r="AF58" s="37">
+      <c r="AF58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="58">
+      <c r="A59" s="67"/>
+      <c r="B59" s="57">
         <v>56</v>
       </c>
-      <c r="C59" s="59" t="s">
+      <c r="C59" s="58" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="29"/>
@@ -4876,19 +4989,22 @@
       <c r="Y59" s="21"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="7"/>
+      <c r="AD59" s="37">
+        <v>0</v>
+      </c>
       <c r="AE59" s="37">
         <v>0</v>
       </c>
-      <c r="AF59" s="37">
+      <c r="AF59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="67"/>
-      <c r="B60" s="60">
+      <c r="A60" s="69"/>
+      <c r="B60" s="59">
         <v>57</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="60" t="s">
         <v>26</v>
       </c>
       <c r="D60" s="31"/>
@@ -4915,10 +5031,13 @@
       <c r="Y60" s="22"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="9"/>
+      <c r="AD60" s="37">
+        <v>0</v>
+      </c>
       <c r="AE60" s="37">
         <v>0</v>
       </c>
-      <c r="AF60" s="37">
+      <c r="AF60">
         <v>0</v>
       </c>
     </row>
@@ -5047,30 +5166,30 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" s="69"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
+      <c r="C68" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D69" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="50">
         <f>F62</f>
@@ -5087,7 +5206,7 @@
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="50">
         <f>J62</f>
@@ -5104,7 +5223,7 @@
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="50">
         <f>N62</f>
@@ -5121,7 +5240,7 @@
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D73" s="50">
         <f>R62</f>
@@ -5138,7 +5257,7 @@
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D74" s="50">
         <f>V62</f>
@@ -5155,7 +5274,7 @@
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="50">
         <f>Z62</f>
@@ -5172,7 +5291,7 @@
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" s="54">
         <f t="shared" ref="D76:E76" si="1">AVERAGE(D70:D75)</f>
@@ -5189,14 +5308,8 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="A32:A56"/>
     <mergeCell ref="A57:A60"/>
-    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C68:F68"/>
     <mergeCell ref="B1:C3"/>
     <mergeCell ref="A4:A6"/>
@@ -5209,6 +5322,12 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="A32:A56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
+++ b/Analyze/Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Documents\PosGraduacao\TCC Andre\_POOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\preto\OneDrive\Documentos\Puc_Lean2016\Analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Plan1" sheetId="6" r:id="rId1"/>
     <sheet name="MEDICAO COMPARATIVA" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -717,40 +717,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -771,9 +771,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -784,7 +784,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES new.xlsx]Plan1!Tabela dinâmica1</c:name>
+    <c:name>[Mapa Planilha de PADs - 3 COMPARAÇÕES.xlsx]Plan1!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -883,6 +883,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64F8-4C48-B679-DA69CBA0578B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -952,6 +957,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-64F8-4C48-B679-DA69CBA0578B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1021,6 +1031,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64F8-4C48-B679-DA69CBA0578B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1097,9 +1112,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1126,7 +1141,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1209,6 +1223,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF64-4DA7-A552-EC6AD2B0415B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1284,6 +1303,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF64-4DA7-A552-EC6AD2B0415B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1359,6 +1383,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF64-4DA7-A552-EC6AD2B0415B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1420,7 +1449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1467,7 +1495,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1502,7 +1536,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1596,7 +1636,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -1692,6 +1732,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2128,97 +2171,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="71"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="66"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="65"/>
-      <c r="N1" s="66"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="71"/>
       <c r="O1" s="23"/>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="66"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="71"/>
       <c r="S1" s="23"/>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="65"/>
-      <c r="V1" s="66"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="23"/>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
       <c r="AA1" s="48"/>
-      <c r="AD1" s="70" t="s">
+      <c r="AD1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
       <c r="AG1" s="34"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="23"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="J2" s="63"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="61" t="s">
+      <c r="L2" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="72"/>
       <c r="O2" s="23"/>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="63"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="72"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="61" t="s">
+      <c r="T2" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="62"/>
-      <c r="V2" s="63"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="72"/>
       <c r="W2" s="23"/>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
       <c r="AA2" s="49"/>
       <c r="AD2" s="34"/>
       <c r="AE2" s="34"/>
       <c r="AF2" s="35"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="29" t="s">
         <v>76</v>
       </c>
@@ -2290,7 +2333,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="11">
@@ -2336,7 +2379,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="12">
         <v>2</v>
       </c>
@@ -2384,7 +2427,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="13">
         <v>3</v>
       </c>
@@ -2425,7 +2468,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="61" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="11">
@@ -2468,7 +2511,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="67"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="12">
         <v>5</v>
       </c>
@@ -2519,7 +2562,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="12">
         <v>6</v>
       </c>
@@ -2584,7 +2627,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="12">
         <v>7</v>
       </c>
@@ -2645,7 +2688,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="12">
         <v>8</v>
       </c>
@@ -2716,7 +2759,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="12">
         <v>9</v>
       </c>
@@ -2767,7 +2810,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="12">
         <v>10</v>
       </c>
@@ -2820,7 +2863,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="12">
         <v>11</v>
       </c>
@@ -2879,7 +2922,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="12">
         <v>12</v>
       </c>
@@ -2936,7 +2979,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="12">
         <v>13</v>
       </c>
@@ -2997,7 +3040,7 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
+      <c r="A17" s="62"/>
       <c r="B17" s="12">
         <v>14</v>
       </c>
@@ -3046,7 +3089,7 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="12">
         <v>15</v>
       </c>
@@ -3107,7 +3150,7 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
+      <c r="A19" s="62"/>
       <c r="B19" s="12">
         <v>16</v>
       </c>
@@ -3158,7 +3201,7 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="12">
         <v>17</v>
       </c>
@@ -3205,7 +3248,7 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="12">
         <v>18</v>
       </c>
@@ -3258,7 +3301,7 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="12">
         <v>19</v>
       </c>
@@ -3323,7 +3366,7 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="12">
         <v>20</v>
       </c>
@@ -3377,7 +3420,7 @@
       <c r="AM23" s="6"/>
     </row>
     <row r="24" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="12">
         <v>21</v>
       </c>
@@ -3437,7 +3480,7 @@
       <c r="AM24" s="6"/>
     </row>
     <row r="25" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="12">
         <v>22</v>
       </c>
@@ -3493,7 +3536,7 @@
       <c r="AM25" s="6"/>
     </row>
     <row r="26" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="12">
         <v>23</v>
       </c>
@@ -3535,7 +3578,7 @@
       <c r="AM26" s="6"/>
     </row>
     <row r="27" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="13"/>
       <c r="C27" s="40"/>
       <c r="D27" s="29"/>
@@ -3573,7 +3616,7 @@
       <c r="AM27" s="6"/>
     </row>
     <row r="28" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="61" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="11">
@@ -3620,7 +3663,7 @@
       <c r="AM28" s="6"/>
     </row>
     <row r="29" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="67"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="12">
         <v>26</v>
       </c>
@@ -3663,7 +3706,7 @@
       <c r="AM29" s="6"/>
     </row>
     <row r="30" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="67"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="12">
         <v>27</v>
       </c>
@@ -3706,7 +3749,7 @@
       <c r="AM30" s="6"/>
     </row>
     <row r="31" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="13">
         <v>28</v>
       </c>
@@ -3749,7 +3792,7 @@
       <c r="AM31" s="6"/>
     </row>
     <row r="32" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="62" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="12">
@@ -3796,7 +3839,7 @@
       <c r="AM32" s="6"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="62"/>
       <c r="B33" s="12">
         <v>30</v>
       </c>
@@ -3842,7 +3885,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="12">
         <v>31</v>
       </c>
@@ -3890,7 +3933,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
+      <c r="A35" s="62"/>
       <c r="B35" s="12">
         <v>32</v>
       </c>
@@ -3938,7 +3981,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="12">
         <v>33</v>
       </c>
@@ -3982,7 +4025,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
+      <c r="A37" s="62"/>
       <c r="B37" s="12">
         <v>34</v>
       </c>
@@ -4028,7 +4071,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="12">
         <v>35</v>
       </c>
@@ -4078,7 +4121,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="12">
         <v>36</v>
       </c>
@@ -4124,7 +4167,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="12">
         <v>37</v>
       </c>
@@ -4168,7 +4211,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="12">
         <v>38</v>
       </c>
@@ -4210,7 +4253,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67"/>
+      <c r="A42" s="62"/>
       <c r="B42" s="12">
         <v>39</v>
       </c>
@@ -4254,7 +4297,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
+      <c r="A43" s="62"/>
       <c r="B43" s="12">
         <v>40</v>
       </c>
@@ -4300,7 +4343,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
+      <c r="A44" s="62"/>
       <c r="B44" s="12">
         <v>41</v>
       </c>
@@ -4344,7 +4387,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="62"/>
       <c r="B45" s="12">
         <v>42</v>
       </c>
@@ -4388,7 +4431,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="62"/>
       <c r="B46" s="12">
         <v>43</v>
       </c>
@@ -4432,7 +4475,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
+      <c r="A47" s="62"/>
       <c r="B47" s="12">
         <v>44</v>
       </c>
@@ -4476,7 +4519,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="12">
         <v>45</v>
       </c>
@@ -4520,7 +4563,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="12">
         <v>46</v>
       </c>
@@ -4566,7 +4609,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="12">
         <v>47</v>
       </c>
@@ -4616,7 +4659,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="12">
         <v>48</v>
       </c>
@@ -4660,7 +4703,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="62"/>
       <c r="B52" s="12">
         <v>49</v>
       </c>
@@ -4702,7 +4745,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="12">
         <v>50</v>
       </c>
@@ -4744,7 +4787,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
+      <c r="A54" s="62"/>
       <c r="B54" s="12">
         <v>51</v>
       </c>
@@ -4786,7 +4829,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="62"/>
       <c r="B55" s="12">
         <v>52</v>
       </c>
@@ -4830,7 +4873,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="12">
         <v>53</v>
       </c>
@@ -4872,7 +4915,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="61" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="55">
@@ -4916,7 +4959,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
+      <c r="A58" s="62"/>
       <c r="B58" s="57">
         <v>55</v>
       </c>
@@ -4958,7 +5001,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="62"/>
       <c r="B59" s="57">
         <v>56</v>
       </c>
@@ -5000,7 +5043,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="59">
         <v>57</v>
       </c>
@@ -5166,12 +5209,12 @@
       <c r="AA62" s="2"/>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="71" t="s">
+      <c r="C68" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" s="3" t="s">
@@ -5308,6 +5351,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="A32:A56"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="C68:F68"/>
@@ -5324,10 +5371,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="A32:A56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
